--- a/table/rda/biomass_rda_anova.xlsx
+++ b/table/rda/biomass_rda_anova.xlsx
@@ -361,7 +361,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rownames(biomass_rda_axis)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rownames(biomass_rda_margin)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/table/rda/biomass_rda_anova.xlsx
+++ b/table/rda/biomass_rda_anova.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="biomass_rda_axis" sheetId="1" r:id="rId1"/>
-    <sheet name="biomass_rda_margin" sheetId="2" r:id="rId2"/>
+    <sheet name="biomass_rda_statistics" sheetId="1" r:id="rId1"/>
+    <sheet name="biomass_rda_axis" sheetId="2" r:id="rId2"/>
+    <sheet name="biomass_rda_margin" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -352,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -361,155 +362,44 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Df</t>
+          <t>R.squared</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Variance</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Pr(&gt;F)</t>
+          <t>Adj.R.squared</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RDA1</t>
+          <t>Full model</t>
         </is>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.3730526866937777</v>
       </c>
       <c r="C2">
-        <v>0.05675257822060063</v>
-      </c>
-      <c r="D2">
-        <v>5.850947392548474</v>
-      </c>
-      <c r="E2">
-        <v>0.0001</v>
+        <v>0.1975074389680355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RDA2</t>
+          <t>Backward selected</t>
         </is>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.3434621809586746</v>
       </c>
       <c r="C3">
-        <v>0.03435043240222588</v>
-      </c>
-      <c r="D3">
-        <v>3.541382245498785</v>
-      </c>
-      <c r="E3">
-        <v>0.0021</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RDA3</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.0173282489127029</v>
-      </c>
-      <c r="D4">
-        <v>1.786468138929547</v>
-      </c>
-      <c r="E4">
-        <v>0.4618</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RDA4</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.01031975976308033</v>
-      </c>
-      <c r="D5">
-        <v>1.063922968271493</v>
-      </c>
-      <c r="E5">
-        <v>0.9005</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RDA5</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.007864962101586921</v>
-      </c>
-      <c r="D6">
-        <v>0.810843858439345</v>
-      </c>
-      <c r="E6">
-        <v>0.9232</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RDA6</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0.005316559256442423</v>
-      </c>
-      <c r="D7">
-        <v>0.5481144556622054</v>
-      </c>
-      <c r="E7">
-        <v>0.9161</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Residual</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>0.2521928389947306</v>
+        <v>0.1919534534875995</v>
       </c>
     </row>
   </sheetData>
@@ -555,6 +445,173 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>RDA1</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.05675257822060062</v>
+      </c>
+      <c r="D2">
+        <v>5.850947392548472</v>
+      </c>
+      <c r="E2">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RDA2</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.03435043240222582</v>
+      </c>
+      <c r="D3">
+        <v>3.541382245498779</v>
+      </c>
+      <c r="E3">
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RDA3</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.01732824891270292</v>
+      </c>
+      <c r="D4">
+        <v>1.786468138929549</v>
+      </c>
+      <c r="E4">
+        <v>0.4618</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RDA4</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.01031975976308035</v>
+      </c>
+      <c r="D5">
+        <v>1.063922968271495</v>
+      </c>
+      <c r="E5">
+        <v>0.9005</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RDA5</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.007864962101586903</v>
+      </c>
+      <c r="D6">
+        <v>0.8108438584393431</v>
+      </c>
+      <c r="E6">
+        <v>0.9232</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RDA6</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.005316559256442427</v>
+      </c>
+      <c r="D7">
+        <v>0.5481144556622057</v>
+      </c>
+      <c r="E7">
+        <v>0.9161</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>0.2521928389947307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Df</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Variance</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pr(&gt;F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Temperature</t>
         </is>
       </c>
@@ -562,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02578411386815654</v>
+        <v>0.02578411386815643</v>
       </c>
       <c r="D2">
-        <v>2.65823154711414</v>
+        <v>2.658231547114128</v>
       </c>
       <c r="E2">
         <v>0.0019</v>
@@ -581,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.0256678119263285</v>
+        <v>0.02566781192632833</v>
       </c>
       <c r="D3">
-        <v>2.646241315751574</v>
+        <v>2.646241315751556</v>
       </c>
       <c r="E3">
         <v>0.0022</v>
@@ -600,10 +657,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.02296924923907395</v>
+        <v>0.02296924923907384</v>
       </c>
       <c r="D4">
-        <v>2.368031077315406</v>
+        <v>2.368031077315394</v>
       </c>
       <c r="E4">
         <v>0.0074</v>
@@ -619,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.025680434140126</v>
+        <v>0.02568043414012583</v>
       </c>
       <c r="D5">
-        <v>2.647542611855155</v>
+        <v>2.647542611855138</v>
       </c>
       <c r="E5">
         <v>0.0023</v>
@@ -638,10 +695,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.02596348205848037</v>
+        <v>0.02596348205848015</v>
       </c>
       <c r="D6">
-        <v>2.67672363819416</v>
+        <v>2.676723638194137</v>
       </c>
       <c r="E6">
         <v>0.0028</v>
@@ -657,10 +714,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.02421832816483849</v>
+        <v>0.0242183281648386</v>
       </c>
       <c r="D7">
-        <v>2.496805757037999</v>
+        <v>2.49680575703801</v>
       </c>
       <c r="E7">
         <v>0.0056</v>
